--- a/CucumberProject/src/test/resources/excel/Testdata.xlsx
+++ b/CucumberProject/src/test/resources/excel/Testdata.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
     <sheet name="Contactus" sheetId="5" r:id="rId2"/>
-    <sheet name="Register" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -97,37 +96,10 @@
     <t>pavanoltraining@gmail.com</t>
   </si>
   <si>
-    <t>Hi this is AutomationTester</t>
+    <t>Hi this is Automation Tester</t>
   </si>
   <si>
     <t>Webmaster</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Jhon</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
 </sst>
 </file>
@@ -159,17 +131,17 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,7 +628,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,43 +762,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1365,7 +1337,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1376,123 +1348,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1522,170 +1494,198 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="26.2222222222222" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1695,121 +1695,8 @@
     <hyperlink ref="B4" r:id="rId2" display="laksh@yahoo.com"/>
     <hyperlink ref="B7" r:id="rId1" display="pavanoltraining@gmail.com"/>
     <hyperlink ref="B9" r:id="rId2" display="laksh@yahoo.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="26.2222222222222" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="pavanoltraining2@gmail.com" tooltip="mailto:pavanoltraining2@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="laksh1@yahoo.com" tooltip="mailto:laksh1@yahoo.com"/>
-    <hyperlink ref="D2" r:id="rId3" display="test@123"/>
-    <hyperlink ref="D6" r:id="rId3" display="test@123"/>
-    <hyperlink ref="D3" r:id="rId3" display="test@123"/>
-    <hyperlink ref="D5" r:id="rId3" display="test@123"/>
-    <hyperlink ref="A3" r:id="rId4" display="pavanoltest1234@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId5" display="jhonhtraining2@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId6" display="jhontraining1@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId3" display="jhonhtraining2@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId4" display="jhontraining1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/CucumberProject/src/test/resources/excel/Testdata.xlsx
+++ b/CucumberProject/src/test/resources/excel/Testdata.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -1494,10 +1494,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1675,20 +1675,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="pavanoltraining@gmail.com"/>
@@ -1696,7 +1682,6 @@
     <hyperlink ref="B7" r:id="rId1" display="pavanoltraining@gmail.com"/>
     <hyperlink ref="B9" r:id="rId2" display="laksh@yahoo.com"/>
     <hyperlink ref="B12" r:id="rId3" display="jhonhtraining2@gmail.com"/>
-    <hyperlink ref="B13" r:id="rId4" display="jhontraining1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
